--- a/条件随机场/TestResult/案由 关键词统计表 20180105v2.xlsx
+++ b/条件随机场/TestResult/案由 关键词统计表 20180105v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8930" tabRatio="925" activeTab="9"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="925" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="民事" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631">
   <si>
     <t>案由代码</t>
   </si>
@@ -7757,9 +7757,6 @@
   </si>
   <si>
     <t>东大</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>东南大学同案不同判预警系统</t>
@@ -7936,10 +7933,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -8059,43 +8056,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8105,7 +8065,54 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8121,53 +8128,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8181,9 +8156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8198,6 +8180,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8230,7 +8227,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8242,73 +8371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8320,19 +8383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8350,67 +8407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8465,6 +8462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8489,26 +8501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8530,26 +8533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8562,6 +8548,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8570,10 +8567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8582,133 +8579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9189,15 +9186,15 @@
       <selection activeCell="E846" sqref="E846"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="7.16363636363636" customWidth="1"/>
-    <col min="3" max="3" width="16.1909090909091" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.18181818181818"/>
-    <col min="5" max="5" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.1916666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.18333333333333"/>
+    <col min="5" max="5" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21747,6 +21744,7 @@
         <customFilter operator="equal" val="劳动争议、人事争议"/>
       </customFilters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E210" location="" display="合同(9528),建设工程(8753),利息(4404),利率(2796),合同约定(2379),给付(1981),强制性规定(1793),管辖(1690),返还(1628),分公司(1610),保证金(1468),合同无效(1398),驳回(1311),鉴定(1259),交付(1193),无效合同(1175),承诺(1103),贷款(1065),民事责任(1052),违约金(1017),承包合同(983),转包(946),处分(923),不动产(903),变更(845),清偿(811),挂靠(806),本案争议(800),第三人(763),工程质量(720),职务行为(714),授权(667),补充协议(598),违约责任(597),合同履行地(570),反诉(545),程序合法(514),传票(463),实际履行(462),垫付(456),传唤(455),法定代表人(451),建设工程合同(409),承接(407),代理(401),合伙(386),债权(372),租赁(365),动产(360),劳务合同(331),房屋租赁(304),房屋买卖(303),代理人(300),债权人(295),债务人(293),缺席判决(291),赔偿损失(284),委托代理人(271),担保(267),合同履行(263),保证(262),撤回起诉(215),合同书(211),伪造(200),投资(197),连带责任(195),意思表示真实(193),解除合同(192),追认(192),诚实信用原则(177),抗辩权(176),有效合同(172),标的物(163),全面履行(160),赔偿责任(159),代理权(156),合同的相对性(156),民事行为(154),实际损失(153),协议无效(145),胁迫(142),书面合同(140),企业法人(132),招标(125),股份有限公司(125),补救措施(125),租金(123),利害关系(121),误工费(120),从合同(117),票据(116),合同的履行(113),追偿(112),定金(107),超越代理权(103),工伤(102),债权转让(101)"/>
@@ -21856,19 +21854,19 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.18181818181818"/>
-    <col min="5" max="5" width="16.1909090909091" style="4" customWidth="1"/>
-    <col min="6" max="6" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.18333333333333"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
+    <col min="5" max="5" width="16.1916666666667" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="28" spans="1:6">
+    <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21879,14 +21877,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2575</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A2" s="5">
         <v>9013</v>
       </c>
@@ -21896,13 +21891,12 @@
       <c r="C2" s="5">
         <v>2002990</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="3" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A3" s="5">
         <v>9015</v>
       </c>
@@ -21912,13 +21906,12 @@
       <c r="C3" s="5">
         <v>1712606</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="4" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A4" s="7">
         <v>9162</v>
       </c>
@@ -21928,13 +21921,12 @@
       <c r="C4" s="5">
         <v>573984</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="5" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A5" s="7">
         <v>9722</v>
       </c>
@@ -21944,13 +21936,12 @@
       <c r="C5" s="5">
         <v>1484163</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>1374</v>
+      </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="6" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A6" s="7">
         <v>9463</v>
       </c>
@@ -21960,13 +21951,12 @@
       <c r="C6" s="5">
         <v>283355</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="10" t="s">
+        <v>886</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="7" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A7" s="5">
         <v>51</v>
       </c>
@@ -21976,13 +21966,12 @@
       <c r="C7" s="5">
         <v>231906</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>1692</v>
+      </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="6" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="8" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A8" s="5">
         <v>4180</v>
       </c>
@@ -21992,13 +21981,12 @@
       <c r="C8" s="5">
         <v>405986</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="10" t="s">
+        <v>2505</v>
+      </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="9" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A9" s="7">
         <v>9461</v>
       </c>
@@ -22008,13 +21996,12 @@
       <c r="C9" s="5">
         <v>802709</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="10" t="s">
+        <v>882</v>
+      </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="10" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A10" s="7">
         <v>9462</v>
       </c>
@@ -22024,13 +22011,12 @@
       <c r="C10" s="5">
         <v>795003</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="10" t="s">
+        <v>884</v>
+      </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="11" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A11" s="5">
         <v>200</v>
       </c>
@@ -22040,11 +22026,10 @@
       <c r="C11" s="5">
         <v>228948</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>1973</v>
+      </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="6" t="s">
-        <v>1973</v>
-      </c>
     </row>
     <row r="12" customFormat="1" ht="100" customHeight="1" spans="1:8">
       <c r="A12" s="5">
@@ -22056,16 +22041,15 @@
       <c r="C12" s="5">
         <v>784470</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>1975</v>
+      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="6" t="s">
-        <v>1975</v>
-      </c>
       <c r="H12" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="13" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A13" s="7">
         <v>9181</v>
       </c>
@@ -22075,33 +22059,30 @@
       <c r="C13" s="5">
         <v>2622356</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="14.75" spans="1:6">
+    </row>
+    <row r="14" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" customFormat="1" ht="26.75" spans="1:6">
+    </row>
+    <row r="15" customFormat="1" ht="24.75" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="12" t="s">
         <v>2576</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="12" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="16" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A16" s="5">
         <v>9016</v>
       </c>
@@ -22111,13 +22092,12 @@
       <c r="C16" s="5">
         <v>43414</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="17" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A17" s="5">
         <v>9021</v>
       </c>
@@ -22127,13 +22107,12 @@
       <c r="C17" s="5">
         <v>46732</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="18" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A18" s="5">
         <v>9023</v>
       </c>
@@ -22143,13 +22122,12 @@
       <c r="C18" s="5">
         <v>27927</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="19" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A19" s="5">
         <v>9024</v>
       </c>
@@ -22159,13 +22137,12 @@
       <c r="C19" s="5">
         <v>82800</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="20" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A20" s="5">
         <v>9025</v>
       </c>
@@ -22175,13 +22152,12 @@
       <c r="C20" s="5">
         <v>46777</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="21" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A21" s="5">
         <v>9026</v>
       </c>
@@ -22191,13 +22167,12 @@
       <c r="C21" s="5">
         <v>26222</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="22" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A22" s="5">
         <v>9030</v>
       </c>
@@ -22207,13 +22182,12 @@
       <c r="C22" s="5">
         <v>43255</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="23" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A23" s="5">
         <v>9031</v>
       </c>
@@ -22223,13 +22197,12 @@
       <c r="C23" s="5">
         <v>13096</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="24" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A24" s="5">
         <v>9038</v>
       </c>
@@ -22239,13 +22212,12 @@
       <c r="C24" s="5">
         <v>13498</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="25" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A25" s="7">
         <v>9039</v>
       </c>
@@ -22255,13 +22227,12 @@
       <c r="C25" s="5">
         <v>79027</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="26" customFormat="1" ht="100" customHeight="1" spans="1:5">
       <c r="A26" s="7">
         <v>9040</v>
       </c>
@@ -22271,13 +22242,12 @@
       <c r="C26" s="5">
         <v>25201</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    </row>
+    <row r="27" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A27" s="7">
         <v>9485</v>
       </c>
@@ -22287,11 +22257,11 @@
       <c r="C27" s="5">
         <v>337</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="28" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A28" s="7">
         <v>9486</v>
       </c>
@@ -22301,11 +22271,11 @@
       <c r="C28" s="5">
         <v>50</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="29" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A29" s="7">
         <v>9199</v>
       </c>
@@ -22315,11 +22285,11 @@
       <c r="C29" s="5">
         <v>31480</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="30" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A30" s="5">
         <v>202</v>
       </c>
@@ -22329,11 +22299,11 @@
       <c r="C30" s="5">
         <v>135457</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="31" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A31" s="5">
         <v>164</v>
       </c>
@@ -22343,11 +22313,11 @@
       <c r="C31" s="5">
         <v>442270</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="32" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A32" s="5">
         <v>162</v>
       </c>
@@ -22357,11 +22327,11 @@
       <c r="C32" s="5">
         <v>99935</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="33" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A33" s="5">
         <v>166</v>
       </c>
@@ -22371,21 +22341,21 @@
       <c r="C33" s="5">
         <v>55602</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="100" customHeight="1" spans="1:6">
+    <row r="34" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A34" s="7">
         <v>9723</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C34" s="5">
         <v>33748</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -22401,196 +22371,196 @@
   <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.27272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.8181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.275" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8166666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.72727272727273" style="1" customWidth="1"/>
-    <col min="9" max="12" width="6.72727272727273" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1818181818182" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.72727272727273" style="1"/>
+    <col min="5" max="8" width="8.725" style="1" customWidth="1"/>
+    <col min="9" max="12" width="6.725" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1833333333333" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.725" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2591</v>
       </c>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="5" ht="24" spans="2:14">
+      <c r="B5" s="2" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="5" ht="26" spans="2:14">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
   </sheetData>
@@ -22604,17 +22574,17 @@
   <sheetPr/>
   <dimension ref="A1:D551"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="11" customWidth="1"/>
-    <col min="4" max="4" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30091,7 +30061,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D551"/>
+  <autoFilter ref="A1:D551">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D299" location=""/>
   </hyperlinks>
@@ -30105,17 +30077,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A18" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="11" customWidth="1"/>
-    <col min="4" max="4" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30689,6 +30661,7 @@
         <customFilter operator="greaterThanOrEqual" val="50000"/>
       </customFilters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -30704,13 +30677,13 @@
       <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="11" customWidth="1"/>
-    <col min="4" max="4" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30866,7 +30839,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D10">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -30877,17 +30852,17 @@
   <sheetPr/>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="9.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="10.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="28"/>
-    <col min="2" max="2" width="20.5454545454545" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.72727272727273" style="28"/>
-    <col min="4" max="4" width="118.363636363636" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.72727272727273" style="28"/>
+    <col min="1" max="1" width="8.725" style="28"/>
+    <col min="2" max="2" width="20.5416666666667" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.725" style="28"/>
+    <col min="4" max="4" width="118.366666666667" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.725" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -32744,18 +32719,18 @@
   <sheetPr/>
   <dimension ref="A1:D843"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A45" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.18181818181818"/>
-    <col min="4" max="4" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.18333333333333"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38254,7 +38229,9 @@
       <c r="D843" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D843"/>
+  <autoFilter ref="A1:D843">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D33" location="" display="合同(27281),承运人(9665),赔偿责任(7713),误工费(5632),交通事故(5388),利息(5107),鉴定(4789),人身损害赔偿(4694),给付(4247),托运人(4146),利率(3626),合同约定(2883),残疾赔偿金(2804),旅客运输合同(2630),违约责任(2425),过失(2354),强制性规定(2216),处分(2158),票据(2090),民事责任(1930),分公司(1883),驳回(1881),传票(1796),第三人(1734),精神损害(1666),传唤(1642),交付(1603),返还(1588),管辖(1582),赔偿损失(1522),挂靠(1441),缺席判决(1420),股份有限公司(1411),赔偿金(1364),垫付(1329),违约金(1312),清偿(1248),损害赔偿(1228),保险合同(1215),保险人(1198),合伙(1026),被保险人(1013),职务行为(976),财产保险(961),本案争议(936),债权人(876),交通事故损害赔偿(870),承诺(814),债务人(808),不可抗力(807),托运单(798),实际损失(782),补救措施(782),合同成立(768),人身损害(762),程序合法(756),合同履行(733),变更(725),赔偿数额(716),法定代表人(685),误工损失(673),贷款(670),代理(655),全面履行(634),债权(616),实际履行(611),买卖合同(589),担保(561),保证(558),航空运输(558),意思表示真实(541),赔偿义务(522),反诉(520),理赔(507),抗辩权(500),财产权(468),授权(460),追偿(453),有效合同(451),诚实信用原则(443),租赁(416),合同履行地(409),夫妻关系(409),实际承运人(402),精神损害赔偿(394),所有权(386),标的物(385),解除合同(371),不履行(367),撤回起诉(356),请求权(355),保证金(338),代理人(333),劳动合同(317),合同的相对性(304),保险责任(301),个体工商户(291),扶养(281)"/>
     <hyperlink ref="D34" location="" display="合同(21249),委托合同(12002),返还(8286),利息(7711),代理(7483),合同约定(6545),强制性规定(6342),违约金(6061),利率(4844),给付(3896),租金(3498),承诺(3222),交付(3217),解除合同(3169),驳回(2959),委托代理合同(2778),违约责任(2766),变更(2541),清偿(2446),担保(2377),保证(2257),处分(2211),管辖(2127),第三人(2099),赔偿损失(2059),授权(2000),垫付(1998),补充协议(1775),合同解除(1732),租赁(1731),委托代理(1691),投资(1624),本案争议(1478),代理合同(1406),合同履行地(1349),民事责任(1328),贷款(1324),鉴定(1208),传票(1206),代理人(1186),缺席判决(1124),债权(1048),传唤(1044),保证金(1015),反诉(983),合同无效(964),分公司(946),合同履行(930),法定代表人(923),实际履行(882),债务人(877),买卖合同(861),程序合法(824),律师代理费(819),补救措施(803),债权人(755),所有权(726),委托代理人(701),过失(691),合同的履行(679),全面履行(674),恢复原状(647),实际损失(644),诚实信用原则(617),风险代理(602),赔偿责任(596),标的物(595),认定有效(571),有效合同(554),继续履行(529),合作协议(523),合同有效(518),意思表示真实(516),定金(515),滞纳金(493),无效合同(484),票据(483),货运代理合同(483),转租(479),欺诈(468),胁迫(460),抵押(459),不履行(452),连带责任(450),民间借贷(449),职务行为(446),股权(441),公证(433),拍卖(426),物业管理(418),经济犯罪(417),代理权(415),抗辩权(402),合同书(393),合伙(386),交通事故(366)"/>
@@ -38281,14 +38258,14 @@
       <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.18181818181818"/>
-    <col min="4" max="4" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.18333333333333"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38302,7 +38279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="91" spans="1:4">
+    <row r="2" ht="84" spans="1:4">
       <c r="A2" s="5">
         <v>9002</v>
       </c>
@@ -38316,7 +38293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="91" spans="1:4">
+    <row r="3" ht="84" spans="1:4">
       <c r="A3" s="5">
         <v>9013</v>
       </c>
@@ -38330,7 +38307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="91" spans="1:4">
+    <row r="4" ht="84" spans="1:4">
       <c r="A4" s="5">
         <v>9015</v>
       </c>
@@ -38344,7 +38321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="91" spans="1:4">
+    <row r="5" ht="72" spans="1:4">
       <c r="A5" s="7">
         <v>9051</v>
       </c>
@@ -38358,7 +38335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" ht="91" spans="1:4">
+    <row r="6" ht="72" spans="1:4">
       <c r="A6" s="16">
         <v>9061</v>
       </c>
@@ -38372,7 +38349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="78" spans="1:4">
+    <row r="7" ht="72" spans="1:4">
       <c r="A7" s="7">
         <v>9062</v>
       </c>
@@ -38386,7 +38363,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" ht="91" spans="1:4">
+    <row r="8" ht="84" spans="1:4">
       <c r="A8" s="7">
         <v>9131</v>
       </c>
@@ -38400,7 +38377,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" ht="91" spans="1:4">
+    <row r="9" ht="72" spans="1:4">
       <c r="A9" s="16">
         <v>9142</v>
       </c>
@@ -38414,7 +38391,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" ht="91" spans="1:4">
+    <row r="10" ht="72" spans="1:4">
       <c r="A10" s="7">
         <v>9162</v>
       </c>
@@ -38428,7 +38405,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" ht="91" spans="1:4">
+    <row r="11" ht="72" spans="1:4">
       <c r="A11" s="16">
         <v>9164</v>
       </c>
@@ -38442,7 +38419,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" ht="91" spans="1:4">
+    <row r="12" ht="72" spans="1:4">
       <c r="A12" s="16">
         <v>9165</v>
       </c>
@@ -38456,7 +38433,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" ht="91" spans="1:4">
+    <row r="13" ht="84" spans="1:4">
       <c r="A13" s="16">
         <v>9177</v>
       </c>
@@ -38470,7 +38447,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" ht="91" spans="1:4">
+    <row r="14" ht="72" spans="1:4">
       <c r="A14" s="16">
         <v>9178</v>
       </c>
@@ -38484,7 +38461,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" ht="91" spans="1:4">
+    <row r="15" ht="72" spans="1:4">
       <c r="A15" s="7">
         <v>9181</v>
       </c>
@@ -38498,7 +38475,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" ht="78" spans="1:4">
+    <row r="16" ht="72" spans="1:4">
       <c r="A16" s="7">
         <v>9191</v>
       </c>
@@ -38512,7 +38489,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" ht="78" spans="1:4">
+    <row r="17" ht="72" spans="1:4">
       <c r="A17" s="7">
         <v>9193</v>
       </c>
@@ -38526,7 +38503,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" ht="91" spans="1:4">
+    <row r="18" ht="72" spans="1:4">
       <c r="A18" s="7">
         <v>9194</v>
       </c>
@@ -38540,7 +38517,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" ht="91" spans="1:4">
+    <row r="19" ht="72" spans="1:4">
       <c r="A19" s="7">
         <v>9196</v>
       </c>
@@ -38554,7 +38531,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" ht="91" spans="1:4">
+    <row r="20" ht="72" spans="1:4">
       <c r="A20" s="7">
         <v>9200</v>
       </c>
@@ -38568,7 +38545,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="21" ht="91" spans="1:4">
+    <row r="21" ht="72" spans="1:4">
       <c r="A21" s="7">
         <v>9208</v>
       </c>
@@ -38582,7 +38559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" ht="78" spans="1:4">
+    <row r="22" ht="72" spans="1:4">
       <c r="A22" s="7">
         <v>9211</v>
       </c>
@@ -38596,7 +38573,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" ht="91.75" spans="1:4">
+    <row r="23" ht="72.75" spans="1:4">
       <c r="A23" s="7">
         <v>9265</v>
       </c>
@@ -38610,7 +38587,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" ht="91.75" spans="1:4">
+    <row r="24" ht="72.75" spans="1:4">
       <c r="A24" s="7">
         <v>9280</v>
       </c>
@@ -38624,7 +38601,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" ht="78.75" spans="1:4">
+    <row r="25" ht="72.75" spans="1:4">
       <c r="A25" s="7">
         <v>9289</v>
       </c>
@@ -38638,7 +38615,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" ht="91.75" spans="1:4">
+    <row r="26" ht="72.75" spans="1:4">
       <c r="A26" s="7">
         <v>9293</v>
       </c>
@@ -38652,7 +38629,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" ht="91" spans="1:4">
+    <row r="27" ht="72" spans="1:4">
       <c r="A27" s="7">
         <v>9363</v>
       </c>
@@ -38666,7 +38643,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="28" ht="91" spans="1:4">
+    <row r="28" ht="72" spans="1:4">
       <c r="A28" s="7">
         <v>9364</v>
       </c>
@@ -38680,7 +38657,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="29" ht="91" spans="1:4">
+    <row r="29" ht="72" spans="1:4">
       <c r="A29" s="7">
         <v>9461</v>
       </c>
@@ -38694,7 +38671,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="30" ht="91" spans="1:4">
+    <row r="30" ht="72" spans="1:4">
       <c r="A30" s="7">
         <v>9462</v>
       </c>
@@ -38708,7 +38685,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="31" ht="78" spans="1:4">
+    <row r="31" ht="72" spans="1:4">
       <c r="A31" s="7">
         <v>9463</v>
       </c>
@@ -38722,7 +38699,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="32" ht="78" spans="1:4">
+    <row r="32" ht="72" spans="1:4">
       <c r="A32" s="7">
         <v>9468</v>
       </c>
@@ -38736,7 +38713,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="33" ht="91" spans="1:4">
+    <row r="33" ht="84" spans="1:4">
       <c r="A33" s="7">
         <v>9705</v>
       </c>
@@ -38750,7 +38727,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="34" ht="91" spans="1:4">
+    <row r="34" ht="84" spans="1:4">
       <c r="A34" s="7">
         <v>9706</v>
       </c>
@@ -38764,7 +38741,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="35" ht="91" spans="1:4">
+    <row r="35" ht="72" spans="1:4">
       <c r="A35" s="7">
         <v>9711</v>
       </c>
@@ -38778,7 +38755,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="36" ht="91" spans="1:4">
+    <row r="36" ht="84" spans="1:4">
       <c r="A36" s="7">
         <v>9722</v>
       </c>
@@ -38792,7 +38769,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="37" ht="78" spans="1:4">
+    <row r="37" ht="72" spans="1:4">
       <c r="A37" s="7">
         <v>9771</v>
       </c>
@@ -38807,7 +38784,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D37">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D23" location="" display="物业管理(189310),合同(122307),处分(53683),合同约定(45175),违约金(39333),滞纳金(29886),分公司(28897),强制性规定(25390),给付(21227),利率(17276),违约责任(12836),委托合同(12834),传票(11782),传唤(11288),利息(11156),民事责任(8919),撤回起诉(8677),驳回(8508),缺席判决(8159),赔偿损失(7169),股份有限公司(7126),返还(6829),意思表示真实(6600),补救措施(5710),全面履行(5536),合同履行(5362),变更(5328),抗辩权(5281),解除合同(4769),承诺(4680),第三人(4398),交付(4211),补充协议(3950),贷款(3587),保证金(3152),分摊(3142),管辖(3104),有效合同(3081),实际损失(3056),本案争议(2979),不履行(2971),实际履行(2968),反诉(2778),合同解除(2660),基金(2555),赔偿责任(2523),鉴定(2495),旅游合同(2487),公共秩序(2452),保证(2347),清偿(2297),代理(2280),程序合法(2196),合同的履行(2194),所有权(2146),授权(2092),合同无效(2073),诚实信用(2073),不完全履行(1981),垫付(1938),诚实信用原则(1936),投资(1929),规避法律(1925),租赁(1901),误工费(1851),恢复原状(1795),合同履行地(1792),服务瑕疵(1725),票据(1588),债权(1556),法定代表人(1550),继续履行(1541),欺诈(1535),共有(1404),合同有效(1281),合同书(1255),担保(1248),案件受理费(1248),债权人(1230),对价(1230),和解(1224),企业法人(1219),人身损害赔偿(1168),交通事故(1110),债务人(1054),预期利益(1051),买卖合同(981),合法行为(929),赔偿金(868),职务行为(856),租金(839),合同的效力(835),承租人(819),受益人(810),合同成立(751),公共利益(747),合同生"/>
     <hyperlink ref="D24" location="" display="物业管理(188001),合同(97689),处分(45659),合同约定(38333),违约金(33380),滞纳金(28690),强制性规定(20160),分公司(18108),给付(17867),利率(13271),委托合同(12264),传票(9365),违约责任(9225),传唤(8934),撤回起诉(7488),民事责任(6755),缺席判决(6544),利息(6002),驳回(5628),意思表示真实(5478),赔偿损失(5230),补救措施(4617),全面履行(4067),抗辩权(3736),合同履行(3420),补充协议(3326),分摊(3082),变更(3016),交付(2952),有效合同(2652),贷款(2548),承诺(2513),基金(2431),公共秩序(2430),实际损失(2398),返还(2340),第三人(2318),保证金(2252),不履行(2188),反诉(2065),不完全履行(1963),所有权(1907),本案争议(1899),规避法律(1831),实际履行(1720),服务瑕疵(1656),合同无效(1629),解除合同(1612),管辖(1579),程序合法(1542),诚实信用(1504),股份有限公司(1447),共有(1369),租赁(1362),投资(1268),诚实信用原则(1179),保证(1173),授权(1139),和解(1107),合同的履行(1027),垫付(1009),预期利益(924),债权(916),对价(909),合法行为(902),合同有效(859),企业法人(843),清偿(832),承租人(777),受益人(753),合同履行地(739),合同的效力(735),公共利益(713),继续履行(712),赔偿责任(710),票据(704),案件受理费(701),买卖合同(689),合同书(662),委托物(662),房屋买卖(654),逾期违约金(636),欺诈(615),无效合同(605),认定有效(579),催告(556),合同生效(554),租金(554),处分权(543),债权转让(542),房屋所有权(475),债务人(471),房地产开发公司(467),保管(450),格式合同(448),迟延履行(447),恢复原状(422),债权人(420)"/>
@@ -38824,18 +38803,18 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.1909090909091" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.18181818181818"/>
-    <col min="4" max="4" width="200.627272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.1916666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.18333333333333"/>
+    <col min="4" max="4" width="200.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="28" spans="1:4">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -39104,25 +39083,25 @@
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" customFormat="1" ht="14.75" spans="1:4">
+    <row r="23" customFormat="1" ht="14.25" spans="1:4">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" customFormat="1" ht="14.75" spans="1:4">
+    <row r="24" customFormat="1" ht="14.25" spans="1:4">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" customFormat="1" ht="14.75" spans="1:4">
+    <row r="25" customFormat="1" ht="14.25" spans="1:4">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" customFormat="1" ht="14.75" spans="1:4">
+    <row r="26" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
@@ -39210,15 +39189,15 @@
   <dimension ref="B2:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="12" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.72727272727273" style="1"/>
-    <col min="3" max="3" width="23.3636363636364" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="8.725" style="1"/>
+    <col min="3" max="3" width="23.3666666666667" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.725" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
